--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>ユーザーストーリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>受け入れ基準</t>
     <rPh sb="0" eb="1">
@@ -29,23 +25,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>キジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積もり</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積もり根拠</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コンキョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -581,31 +560,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・日付を指定して、タスクごとのその日の作業時間合計が、一覧で表示されること。</t>
-    <rPh sb="1" eb="3">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>サギョウジカン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>昼休みになると、現在「作業中」のタスクは、自動で「中断」になる。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -862,6 +816,73 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積もり（三段階）</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サンダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やるかどうか不明。やらないかも。</t>
+    <rPh sb="6" eb="8">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先順位</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーストーリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・日付を指定して、タスクごとのその日の作業時間合計が、一覧で表示されること。
+・タスクの詳細画面に遷移できること。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>サギョウジカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1249,300 +1270,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="52.75" customWidth="1"/>
-    <col min="3" max="3" width="55.75" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.75" customWidth="1"/>
+    <col min="4" max="4" width="55.75" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="135" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" ht="135" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -891,7 +891,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,6 +902,22 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -951,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,6 +978,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1274,7 +1296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,7 +1346,7 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1352,7 +1374,7 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1366,7 +1388,7 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1380,7 +1402,7 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1394,7 +1416,7 @@
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1422,7 +1444,7 @@
       <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1436,7 +1458,7 @@
       <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1450,7 +1472,7 @@
       <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1520,7 +1542,7 @@
       <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1534,7 +1556,7 @@
       <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>2</v>
       </c>
     </row>

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -29,12 +29,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスクを登録できる。</t>
-  </si>
-  <si>
-    <t>未完了のタスク一覧を確認できる。</t>
-  </si>
-  <si>
     <t>個々のタスクの詳細を確認できる。</t>
   </si>
   <si>
@@ -884,6 +878,14 @@
     <rPh sb="49" eb="51">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクを登録できる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完了のタスク一覧を確認できる。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -938,7 +940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -961,13 +963,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +1014,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1296,7 +1347,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E18:E19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1310,16 +1361,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -1327,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1341,10 +1392,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -1355,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1369,10 +1420,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -1383,40 +1434,40 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
+    <row r="8" spans="2:5" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1425,10 +1476,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1439,10 +1490,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5">
         <v>3</v>
@@ -1453,10 +1504,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -1467,40 +1518,40 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
+    <row r="14" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="54.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1509,10 +1560,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1523,10 +1574,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1537,72 +1588,72 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
+    <row r="19" spans="2:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="6">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="6">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>受け入れ基準</t>
     <rPh sb="0" eb="1">
@@ -886,6 +886,57 @@
   </si>
   <si>
     <t>未完了のタスク一覧を確認できる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一覧画面で、以下の事がキーボードを使ったコマンド入力だけで実現できる。
+・登録画面の表示
+・タスクの状態の変更
+・タスクの削除
+・詳細画面の表示</t>
+    <rPh sb="1" eb="5">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドでタスク登録・更新・削除といった操作ができる。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1343,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F33"/>
+  <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1373,32 +1424,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="148.5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
@@ -1611,58 +1662,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" ht="81.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6">
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B21" s="6">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="9">
-        <v>19</v>
-      </c>
-      <c r="C21" s="10" t="s">
+    <row r="22" spans="2:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="6">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7" t="s">
+    <row r="23" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="3">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
@@ -1743,6 +1800,14 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="7995" windowHeight="4260"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="7995" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -106,99 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・未完了のタスクが一覧で表示される。
-・タスクは、優先度順が高いものが上に来るようにソートされていること。
-・優先度ごとにタスクに色が付いていること（S は赤、 A は黄、 B は緑、 C は白）
-・一覧表示されているタスクには、「タイトル」「登録日」「期限」「状態」「作業時間（累積）」「優先度」が表示されていること。
-・作業中のタスクが、他のタスクと区別されて分かりやすく表示されていること。
-・その日完了になったタスクが、他のタスクと区別されて表示されていること。</t>
-    <rPh sb="1" eb="4">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>ユウセンドジュン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="100" eb="104">
-      <t>イチランヒョウジ</t>
-    </rPh>
-    <rPh sb="122" eb="125">
-      <t>トウロクビ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="135" eb="139">
-      <t>サギョウジカン</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ルイセキ</t>
-    </rPh>
-    <rPh sb="145" eb="148">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="162" eb="165">
-      <t>サギョウチュウ</t>
-    </rPh>
-    <rPh sb="171" eb="172">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>クベツ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="214" eb="215">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>クベツ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・一覧画面で選択したタスクの、詳細な情報が確認できること。</t>
     <rPh sb="1" eb="5">
       <t>イチランガメン</t>
@@ -939,12 +846,208 @@
     <t>コマンドでタスク登録・更新・削除といった操作ができる。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・未完了のタスクが一覧で表示される。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・タスクは、優先度順が高いものが上に来るようにソートされていること。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・優先度ごとにタスクに色が付いていること（S は赤、 A は黄、 B は緑、 C は白）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・一覧表示されているタスクには、「タイトル」「登録日」「期限」「状態」「作業時間（累積）」「優先度」が表示されていること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・作業中のタスクが、他のタスクと区別されて分かりやすく表示されていること。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・その日完了になったタスクが、他のタスクと区別されて表示されていること。</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ユウセンドジュン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="100" eb="104">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="122" eb="125">
+      <t>トウロクビ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="135" eb="139">
+      <t>サギョウジカン</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="145" eb="148">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="162" eb="165">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,6 +1076,23 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1048,7 +1168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,6 +1207,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,8 +1520,8 @@
   <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1412,16 +1535,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="148.5" x14ac:dyDescent="0.15">
@@ -1429,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="5">
         <v>3</v>
@@ -1443,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
@@ -1460,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1474,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -1488,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -1502,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="11">
         <v>3</v>
@@ -1513,10 +1636,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="E9" s="8">
         <v>2</v>
@@ -1530,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1544,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="5">
         <v>3</v>
@@ -1558,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -1569,10 +1692,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -1583,10 +1706,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
@@ -1600,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -1614,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1628,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1642,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -1656,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="12">
         <v>2</v>
@@ -1667,10 +1790,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="6">
         <v>3</v>
@@ -1684,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -1698,7 +1821,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
@@ -1709,16 +1832,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
         <v>39</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -1168,7 +1168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,6 +1209,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1521,7 +1524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1568,7 +1571,7 @@
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="3">

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -1524,7 +1524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1585,7 +1585,7 @@
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="3">

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -144,211 +144,6 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・一覧画面で、選択したタスクの状態を変更できること。
-・詳細画面で、タスクの状態を変更できること。
-・あるタスクを「作業中」に変更したとき、他に「作業中」のタスクがあった場合、そのタスクの状態が「中断」に変更されること。
-・タスクが「作業中」だった間だけ、作業時間の明細が作成されること（確認は DB を直接参照する）。
-・一覧画面で変更した場合、リアルタイムでタスクの配置が変更されること（作業中・完了・その他）。
-・「完了」にした場合、「完了日」が自動で設定されること。「完了」ではなくした場合、「完了日」が空になること。</t>
-    <rPh sb="1" eb="5">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>サギョウチュウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>サギョウチュウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>チュウダン</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="117" eb="120">
-      <t>サギョウチュウ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="128" eb="132">
-      <t>サギョウジカン</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="162" eb="166">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="196" eb="199">
-      <t>サギョウチュウ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="211" eb="213">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="217" eb="219">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="221" eb="224">
-      <t>カンリョウビ</t>
-    </rPh>
-    <rPh sb="226" eb="228">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="229" eb="231">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="247" eb="249">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="251" eb="254">
-      <t>カンリョウビ</t>
-    </rPh>
-    <rPh sb="256" eb="257">
-      <t>カラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・詳細画面で、タスクの内容を変更できること。
-・変更できる項目は、「タイトル」「期限」「重要度」「詳細」（「状態」は別のストーリーで確認済み）。
-・「期限」を変更すると、「緊急度」が自動再設定されること。
-・「重要度」と「緊急度」のいずれかが変わると、「優先度」が自動再設定されること。</t>
-    <rPh sb="1" eb="5">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ジュウヨウド</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="86" eb="89">
-      <t>キンキュウド</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="105" eb="108">
-      <t>ジュウヨウド</t>
-    </rPh>
-    <rPh sb="111" eb="114">
-      <t>キンキュウド</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="127" eb="130">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ジドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1039,6 +834,183 @@
     </rPh>
     <rPh sb="225" eb="227">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・詳細画面で、タスクの内容を変更できること。
+・変更できる項目は、「タイトル」「期限」「重要度」「詳細」「状態」。
+・「期限」を変更すると、「緊急度」が自動再設定されること。
+・「重要度」と「緊急度」のいずれかが変わると、「優先度」が自動再設定されること。</t>
+    <rPh sb="1" eb="5">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>キンキュウド</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>キンキュウド</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一覧画面で、選択したタスクの状態を変更できること。
+・あるタスクを「作業中」に変更したとき、他に「作業中」のタスクがあった場合、そのタスクの状態が「中断」に変更されること。
+・タスクが「作業中」だった間だけ、作業時間の明細が作成されること（確認は DB を直接参照する）。
+・リアルタイムでタスクの配置が変更されること（作業中・完了・その他）。
+・「完了」にした場合、「完了日」が自動で設定されること。「完了」ではなくした場合、「完了日」が空になること。</t>
+    <rPh sb="1" eb="5">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="94" eb="97">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="105" eb="109">
+      <t>サギョウジカン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="161" eb="164">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="186" eb="189">
+      <t>カンリョウビ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="216" eb="219">
+      <t>カンリョウビ</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>カラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1524,7 +1496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1538,16 +1510,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="148.5" x14ac:dyDescent="0.15">
@@ -1555,10 +1527,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5">
         <v>3</v>
@@ -1569,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>15</v>
@@ -1599,14 +1571,14 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1614,13 +1586,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -1628,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E8" s="11">
         <v>3</v>
@@ -1639,10 +1611,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="8">
         <v>2</v>
@@ -1656,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1670,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5">
         <v>3</v>
@@ -1684,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -1695,10 +1667,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -1709,10 +1681,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
@@ -1726,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -1740,7 +1712,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1754,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1768,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -1782,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="12">
         <v>2</v>
@@ -1793,10 +1765,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6">
         <v>3</v>
@@ -1810,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -1824,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
@@ -1835,16 +1807,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>タスクを削除することができる。</t>
-  </si>
-  <si>
-    <t>タスクの状態を変更できる。</t>
   </si>
   <si>
     <t>タスクの内容を変更することができる。</t>
@@ -1012,6 +1009,10 @@
     <rPh sb="221" eb="222">
       <t>カラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクの状態を変更できる。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1496,7 +1497,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1510,16 +1511,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="148.5" x14ac:dyDescent="0.15">
@@ -1527,10 +1528,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5">
         <v>3</v>
@@ -1541,10 +1542,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1558,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1572,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -1583,10 +1584,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -1597,10 +1598,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="11">
         <v>3</v>
@@ -1611,10 +1612,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="8">
         <v>2</v>
@@ -1625,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1639,10 +1640,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5">
         <v>3</v>
@@ -1653,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -1667,10 +1668,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -1681,10 +1682,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
@@ -1695,10 +1696,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -1709,10 +1710,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1723,10 +1724,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1737,10 +1738,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -1751,10 +1752,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="12">
         <v>2</v>
@@ -1765,10 +1766,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="6">
         <v>3</v>
@@ -1779,10 +1780,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -1793,10 +1794,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
@@ -1807,16 +1808,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
         <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>受け入れ基準</t>
     <rPh sb="0" eb="1">
@@ -1015,12 +1015,133 @@
     <t>タスクの状態を変更できる。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ここまで、約１ヶ月（１３ポイント）</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面で編集中の情報がある状態で画面遷移を使用とした場合、警告メッセージを表示する。</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タスク詳細画面で１項目でも値を変更した場合、保存せずに画面遷移しようとしたときに警告メッセージが表示されること。</t>
+    <rPh sb="4" eb="8">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在時刻を確認できる。</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンザイジコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライセンスページを確認できる。</t>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面上に、常にリアルタイムで現在時刻が表示されていること（分まで表示）。</t>
+    <rPh sb="1" eb="4">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ゲンザイジコク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・使用しているライブラリのライセンスが確認できること。</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,6 +1190,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1084,7 +1214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1135,13 +1265,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1185,6 +1339,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1493,11 +1665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F34"/>
+  <dimension ref="B2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1509,7 +1681,7 @@
     <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1523,7 +1695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1537,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -1551,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1565,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1579,35 +1751,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -1621,7 +1796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -1635,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -1649,7 +1824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -1663,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -1677,7 +1852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -1691,161 +1866,179 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="54.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="6">
+    <row r="15" spans="2:6" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="17">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B16" s="17">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="17" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
+      <c r="B18" s="17">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B19" s="17">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="9">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10" t="s">
+    <row r="20" spans="2:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="17">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="81.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="6">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    <row r="21" spans="2:6" ht="81.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="17">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B21" s="6">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7" t="s">
+    <row r="22" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B22" s="17">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="9">
-        <v>20</v>
-      </c>
-      <c r="C22" s="10" t="s">
+    <row r="23" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B23" s="17">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="6">
-        <v>21</v>
-      </c>
-      <c r="C23" s="7" t="s">
+    <row r="24" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B24" s="17">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="19">
+        <v>23</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="17">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
-        <v>24</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-    </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="3">
+      <c r="B27" s="17">
         <v>25</v>
       </c>
       <c r="C27" s="2"/>
@@ -1853,7 +2046,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="3">
+      <c r="B28" s="17">
         <v>26</v>
       </c>
       <c r="C28" s="2"/>
@@ -1861,7 +2054,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="3">
+      <c r="B29" s="17">
         <v>27</v>
       </c>
       <c r="C29" s="2"/>
@@ -1869,7 +2062,7 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="3">
+      <c r="B30" s="17">
         <v>28</v>
       </c>
       <c r="C30" s="2"/>
@@ -1877,7 +2070,7 @@
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="3">
+      <c r="B31" s="17">
         <v>29</v>
       </c>
       <c r="C31" s="2"/>
@@ -1885,7 +2078,7 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="3">
+      <c r="B32" s="17">
         <v>30</v>
       </c>
       <c r="C32" s="2"/>
@@ -1893,7 +2086,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="3">
+      <c r="B33" s="17">
         <v>31</v>
       </c>
       <c r="C33" s="2"/>
@@ -1901,12 +2094,36 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="3">
+      <c r="B34" s="17">
         <v>32</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="17">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="17">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="17">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -1295,7 +1295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,6 +1358,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1668,8 +1674,8 @@
   <dimension ref="B2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1679,6 +1685,7 @@
     <col min="3" max="3" width="52.75" customWidth="1"/>
     <col min="4" max="4" width="55.75" customWidth="1"/>
     <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
@@ -1789,11 +1796,14 @@
       <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="8">
         <v>2</v>
+      </c>
+      <c r="F9" s="22">
+        <v>41874</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="54" x14ac:dyDescent="0.15">

--- a/doc/ユーザーストーリー見積もり.xlsx
+++ b/doc/ユーザーストーリー見積もり.xlsx
@@ -1675,7 +1675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1813,7 +1813,7 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3">
